--- a/resource/excel/ExcelExport.xlsx
+++ b/resource/excel/ExcelExport.xlsx
@@ -401,7 +401,7 @@
     </row>
     <row r="3" ht="15" customHeight="true">
       <c r="A3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -419,6 +419,52 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="true">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="true">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>7</v>
       </c>
     </row>
